--- a/Team-Data/2007-08/12-8-2007-08.xlsx
+++ b/Team-Data/2007-08/12-8-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,94 +733,94 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.474</v>
+        <v>0.444</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I2" t="n">
         <v>34.2</v>
       </c>
       <c r="J2" t="n">
-        <v>77.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L2" t="n">
         <v>4.1</v>
       </c>
       <c r="M2" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="N2" t="n">
         <v>0.301</v>
       </c>
       <c r="O2" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="P2" t="n">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="S2" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="U2" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V2" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W2" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y2" t="n">
         <v>5.9</v>
       </c>
-      <c r="Y2" t="n">
-        <v>5.8</v>
-      </c>
       <c r="Z2" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.90000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.3</v>
+        <v>-1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
         <v>2</v>
@@ -762,10 +829,10 @@
         <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -780,43 +847,43 @@
         <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS2" t="n">
         <v>29</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>24</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -848,88 +915,88 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.895</v>
+        <v>0.889</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I3" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J3" t="n">
-        <v>75.2</v>
+        <v>75.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
       <c r="L3" t="n">
         <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.388</v>
+        <v>0.394</v>
       </c>
       <c r="O3" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S3" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="T3" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V3" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="n">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>102.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -953,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
@@ -962,34 +1029,34 @@
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>15</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -1030,67 +1097,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>0.389</v>
+        <v>0.353</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
-        <v>17.3</v>
+        <v>17.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O4" t="n">
-        <v>18.2</v>
+        <v>17.2</v>
       </c>
       <c r="P4" t="n">
-        <v>26.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="R4" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="U4" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="V4" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
@@ -1099,25 +1166,25 @@
         <v>23.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.09999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.4</v>
+        <v>-5.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>14</v>
@@ -1126,37 +1193,37 @@
         <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
         <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN4" t="n">
         <v>9</v>
       </c>
       <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
         <v>18</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>14</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AS4" t="n">
         <v>30</v>
       </c>
       <c r="AT4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>26</v>
@@ -1168,7 +1235,7 @@
         <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1177,13 +1244,13 @@
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
         <v>27</v>
       </c>
       <c r="BC4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.333</v>
+        <v>0.353</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.398</v>
+        <v>0.4</v>
       </c>
       <c r="L5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M5" t="n">
         <v>16.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.312</v>
+        <v>0.319</v>
       </c>
       <c r="O5" t="n">
         <v>16.9</v>
@@ -1251,55 +1318,55 @@
         <v>22.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R5" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="S5" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>44.3</v>
+        <v>44.8</v>
       </c>
       <c r="U5" t="n">
         <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.7</v>
       </c>
       <c r="X5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AA5" t="n">
         <v>21.8</v>
       </c>
-      <c r="AA5" t="n">
-        <v>21.7</v>
-      </c>
       <c r="AB5" t="n">
-        <v>89.3</v>
+        <v>89.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-5.1</v>
+        <v>-4.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>14</v>
@@ -1314,19 +1381,19 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>17</v>
@@ -1335,28 +1402,28 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>21</v>
       </c>
       <c r="AV5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA5" t="n">
         <v>15</v>
@@ -1365,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.429</v>
+        <v>0.45</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.59999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M6" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O6" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.709</v>
+        <v>0.706</v>
       </c>
       <c r="R6" t="n">
         <v>12.3</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U6" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="V6" t="n">
-        <v>15.8</v>
+        <v>15.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
@@ -1457,67 +1524,67 @@
         <v>4.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
         <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1526,28 +1593,28 @@
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>18</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
         <v>28</v>
       </c>
       <c r="BB6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -1576,109 +1643,109 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
         <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.619</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>79.2</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.466</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.341</v>
+        <v>0.33</v>
       </c>
       <c r="O7" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="P7" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.847</v>
+        <v>0.846</v>
       </c>
       <c r="R7" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
-        <v>42.2</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V7" t="n">
         <v>12.8</v>
       </c>
       <c r="W7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X7" t="n">
         <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.6</v>
+        <v>102.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
         <v>17</v>
@@ -1687,25 +1754,25 @@
         <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AU7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
@@ -1714,19 +1781,19 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB7" t="n">
         <v>9</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>8</v>
       </c>
       <c r="BC7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -1758,49 +1825,49 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.619</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="J8" t="n">
-        <v>84.09999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.459</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.341</v>
+        <v>0.349</v>
       </c>
       <c r="O8" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S8" t="n">
         <v>33.5</v>
@@ -1809,43 +1876,43 @@
         <v>44.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>16.8</v>
+        <v>16.4</v>
       </c>
       <c r="W8" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="X8" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.1</v>
+        <v>107.4</v>
       </c>
       <c r="AC8" t="n">
         <v>5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
@@ -1863,10 +1930,10 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1878,31 +1945,31 @@
         <v>19</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT8" t="n">
         <v>6</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AU8" t="n">
         <v>5</v>
       </c>
-      <c r="AU8" t="n">
-        <v>4</v>
-      </c>
       <c r="AV8" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2036,25 +2103,25 @@
         <v>8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>18</v>
@@ -2063,7 +2130,7 @@
         <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT9" t="n">
         <v>22</v>
@@ -2078,7 +2145,7 @@
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>25</v>
@@ -2245,10 +2312,10 @@
         <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2260,19 +2327,19 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2397,13 +2464,13 @@
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ11" t="n">
         <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
         <v>14</v>
@@ -2412,13 +2479,13 @@
         <v>11</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
         <v>21</v>
@@ -2427,10 +2494,10 @@
         <v>5</v>
       </c>
       <c r="AS11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -2439,7 +2506,7 @@
         <v>7</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
         <v>14</v>
@@ -2454,7 +2521,7 @@
         <v>22</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
         <v>12</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2594,22 +2661,22 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ12" t="n">
         <v>15</v>
       </c>
       <c r="AR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS12" t="n">
         <v>4</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -2621,22 +2688,22 @@
         <v>23</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
         <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC12" t="n">
         <v>15</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>20</v>
@@ -2764,16 +2831,16 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
       </c>
       <c r="AL13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM13" t="n">
         <v>20</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>21</v>
       </c>
       <c r="AN13" t="n">
         <v>14</v>
@@ -2797,7 +2864,7 @@
         <v>14</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
@@ -2806,13 +2873,13 @@
         <v>25</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA13" t="n">
         <v>13</v>
@@ -2821,7 +2888,7 @@
         <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>4.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2958,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2970,31 +3037,31 @@
         <v>8</v>
       </c>
       <c r="AR14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS14" t="n">
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>0.316</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="J15" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="L15" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M15" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.39</v>
+        <v>0.402</v>
       </c>
       <c r="O15" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="P15" t="n">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R15" t="n">
         <v>9.800000000000001</v>
@@ -3080,61 +3147,61 @@
         <v>32.1</v>
       </c>
       <c r="T15" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U15" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V15" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
         <v>5.6</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
         <v>5.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA15" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="n">
         <v>23</v>
       </c>
-      <c r="AB15" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>25</v>
-      </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3143,50 +3210,50 @@
         <v>3</v>
       </c>
       <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
         <v>12</v>
       </c>
-      <c r="AP15" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR15" t="n">
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
         <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC15" t="n">
         <v>16</v>
       </c>
-      <c r="AZ15" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>18</v>
-      </c>
       <c r="BD15" t="n">
         <v>10</v>
       </c>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3307,7 +3374,7 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
@@ -3322,13 +3389,13 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
         <v>30</v>
@@ -3337,7 +3404,7 @@
         <v>26</v>
       </c>
       <c r="AS16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT16" t="n">
         <v>27</v>
@@ -3349,10 +3416,10 @@
         <v>11</v>
       </c>
       <c r="AW16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
@@ -3361,7 +3428,7 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-5.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
         <v>13</v>
@@ -3507,7 +3574,7 @@
         <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3519,16 +3586,16 @@
         <v>11</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>15</v>
       </c>
       <c r="AV17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>27</v>
@@ -3549,7 +3616,7 @@
         <v>20</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>0.167</v>
+        <v>0.118</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
         <v>0.442</v>
       </c>
       <c r="L18" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M18" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O18" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="P18" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.717</v>
+        <v>0.716</v>
       </c>
       <c r="R18" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.9</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="V18" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W18" t="n">
         <v>7.8</v>
       </c>
       <c r="X18" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.300000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,7 +3738,7 @@
         <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
@@ -3680,7 +3747,7 @@
         <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
         <v>18</v>
@@ -3698,28 +3765,28 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3728,10 +3795,10 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3847,10 +3914,10 @@
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,10 +3932,10 @@
         <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>7</v>
@@ -3880,28 +3947,28 @@
         <v>16</v>
       </c>
       <c r="AR19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS19" t="n">
         <v>20</v>
       </c>
-      <c r="AS19" t="n">
-        <v>19</v>
-      </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU19" t="n">
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW19" t="n">
         <v>26</v>
       </c>
       <c r="AX19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
@@ -3913,7 +3980,7 @@
         <v>29</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4041,19 +4108,19 @@
         <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
         <v>8</v>
       </c>
       <c r="AM20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
@@ -4068,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>20</v>
@@ -4077,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
@@ -4086,7 +4153,7 @@
         <v>5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -4124,139 +4191,139 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>0.316</v>
+        <v>0.333</v>
       </c>
       <c r="H21" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I21" t="n">
-        <v>34.4</v>
+        <v>34.9</v>
       </c>
       <c r="J21" t="n">
-        <v>80.09999999999999</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="L21" t="n">
         <v>5.2</v>
       </c>
       <c r="M21" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.319</v>
+        <v>0.327</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P21" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="n">
         <v>0.698</v>
       </c>
       <c r="R21" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="S21" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>41.3</v>
+        <v>42.1</v>
       </c>
       <c r="U21" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="V21" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W21" t="n">
         <v>6.6</v>
       </c>
       <c r="X21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Y21" t="n">
         <v>5.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="AA21" t="n">
         <v>22.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.9</v>
+        <v>-7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG21" t="n">
         <v>25</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>26</v>
       </c>
       <c r="AH21" t="n">
         <v>2</v>
       </c>
       <c r="AI21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN21" t="n">
         <v>25</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>26</v>
-      </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ21" t="n">
         <v>28</v>
       </c>
       <c r="AR21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>22</v>
@@ -4265,19 +4332,19 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA21" t="n">
         <v>12</v>
       </c>
       <c r="BB21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -4387,16 +4454,16 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>13</v>
@@ -4405,7 +4472,7 @@
         <v>19</v>
       </c>
       <c r="AK22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -4426,7 +4493,7 @@
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4438,7 +4505,7 @@
         <v>12</v>
       </c>
       <c r="AV22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW22" t="n">
         <v>24</v>
@@ -4447,19 +4514,19 @@
         <v>15</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>7</v>
       </c>
       <c r="BA22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB22" t="n">
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>0.35</v>
+        <v>0.316</v>
       </c>
       <c r="H23" t="n">
         <v>48.5</v>
       </c>
       <c r="I23" t="n">
-        <v>35.7</v>
+        <v>35.3</v>
       </c>
       <c r="J23" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.447</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M23" t="n">
         <v>13.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.317</v>
+        <v>0.306</v>
       </c>
       <c r="O23" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P23" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.699</v>
+        <v>0.706</v>
       </c>
       <c r="R23" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S23" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="X23" t="n">
         <v>5.2</v>
@@ -4554,40 +4621,40 @@
         <v>4.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>92.7</v>
+        <v>92</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.2</v>
+        <v>-2.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4596,10 +4663,10 @@
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
@@ -4611,25 +4678,25 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
         <v>18</v>
       </c>
       <c r="AV23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW23" t="n">
         <v>20</v>
       </c>
-      <c r="AW23" t="n">
-        <v>19</v>
-      </c>
       <c r="AX23" t="n">
         <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ23" t="n">
         <v>12</v>
@@ -4638,10 +4705,10 @@
         <v>24</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -4670,55 +4737,55 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.762</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>42.4</v>
+        <v>42.7</v>
       </c>
       <c r="J24" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.495</v>
+        <v>0.497</v>
       </c>
       <c r="L24" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="M24" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="O24" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="R24" t="n">
         <v>8.6</v>
       </c>
-      <c r="M24" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.369</v>
-      </c>
-      <c r="O24" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="P24" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="R24" t="n">
-        <v>8.5</v>
-      </c>
       <c r="S24" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.5</v>
+        <v>41.9</v>
       </c>
       <c r="U24" t="n">
         <v>27.9</v>
@@ -4727,31 +4794,31 @@
         <v>14.1</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.2</v>
+        <v>111.1</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF24" t="n">
         <v>3</v>
@@ -4769,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL24" t="n">
         <v>3</v>
@@ -4778,13 +4845,13 @@
         <v>3</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP24" t="n">
         <v>26</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>27</v>
       </c>
       <c r="AQ24" t="n">
         <v>6</v>
@@ -4796,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4808,7 +4875,7 @@
         <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
         <v>4</v>
@@ -4820,10 +4887,10 @@
         <v>26</v>
       </c>
       <c r="BB24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-5.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
         <v>22</v>
@@ -4945,10 +5012,10 @@
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK25" t="n">
         <v>12</v>
@@ -4960,13 +5027,13 @@
         <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>28</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ25" t="n">
         <v>22</v>
@@ -4975,13 +5042,13 @@
         <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AT25" t="n">
         <v>30</v>
       </c>
       <c r="AU25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV25" t="n">
         <v>10</v>
@@ -4990,7 +5057,7 @@
         <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
@@ -5002,10 +5069,10 @@
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>0.368</v>
+        <v>0.389</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>78.7</v>
       </c>
       <c r="K26" t="n">
         <v>0.447</v>
@@ -5061,67 +5128,67 @@
         <v>5.2</v>
       </c>
       <c r="M26" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="O26" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="R26" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="V26" t="n">
         <v>15.2</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="O26" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="P26" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="S26" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="T26" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="U26" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="V26" t="n">
-        <v>15.6</v>
-      </c>
       <c r="W26" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="X26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>25.2</v>
+        <v>25.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AC26" t="n">
         <v>-3.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
         <v>2</v>
@@ -5130,10 +5197,10 @@
         <v>23</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>22</v>
@@ -5142,10 +5209,10 @@
         <v>24</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP26" t="n">
         <v>2</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS26" t="n">
         <v>24</v>
@@ -5166,19 +5233,19 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW26" t="n">
         <v>16</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -5312,13 +5379,13 @@
         <v>6</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK27" t="n">
         <v>4</v>
       </c>
       <c r="AL27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM27" t="n">
         <v>6</v>
@@ -5327,13 +5394,13 @@
         <v>2</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
         <v>25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
         <v>27</v>
@@ -5360,7 +5427,7 @@
         <v>10</v>
       </c>
       <c r="AZ27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,7 +5555,7 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
         <v>12</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
         <v>27</v>
@@ -5512,10 +5579,10 @@
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>15</v>
@@ -5536,16 +5603,16 @@
         <v>17</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ28" t="n">
         <v>26</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5682,7 +5749,7 @@
         <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5700,13 +5767,13 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5715,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>0.619</v>
+        <v>0.65</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.501</v>
+        <v>0.496</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O30" t="n">
         <v>22.4</v>
@@ -5801,55 +5868,55 @@
         <v>29.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.758</v>
+        <v>0.761</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="S30" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.2</v>
+        <v>41.6</v>
       </c>
       <c r="U30" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="V30" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W30" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z30" t="n">
         <v>24.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>107.1</v>
+        <v>106.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>5</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
         <v>19</v>
@@ -5858,10 +5925,10 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5870,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,16 +5946,16 @@
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR30" t="n">
         <v>14</v>
       </c>
-      <c r="AR30" t="n">
-        <v>12</v>
-      </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5903,7 +5970,7 @@
         <v>25</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5912,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6034,7 +6101,7 @@
         <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
@@ -6052,13 +6119,13 @@
         <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ31" t="n">
         <v>7</v>
@@ -6067,34 +6134,34 @@
         <v>7</v>
       </c>
       <c r="AS31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT31" t="n">
         <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY31" t="n">
         <v>6</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>6</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-8-2007-08</t>
+          <t>2007-12-08</t>
         </is>
       </c>
     </row>
